--- a/docs/5管理/开发工具.xlsx
+++ b/docs/5管理/开发工具.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Intellij IDEA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +162,30 @@
   </si>
   <si>
     <t>nodepad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://registry.npmjs.org/ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node仓库地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maven仓库地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mvnrepository.com/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,7 +193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,8 +218,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,8 +251,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -294,13 +337,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -349,9 +407,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -696,7 +773,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -704,16 +781,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -874,22 +951,55 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>21</v>
+      <c r="C17" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B19" r:id="rId1"/>
+    <hyperlink ref="B20" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>